--- a/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
+++ b/branches/Richard/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
